--- a/LaunchProject/weather/RocketLaunchData.xlsx
+++ b/LaunchProject/weather/RocketLaunchData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-viange\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahguthals/Documents/GitHub/aed-content-nasa-su20/LaunchProject/weather/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CD471C-528E-4025-BFAE-F757B926856C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11896505-BD61-7043-B3A2-F952D691D04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="2268" windowWidth="23040" windowHeight="12060" xr2:uid="{5C3E01C8-E00E-4E25-94E5-25E6664D94E2}"/>
+    <workbookView xWindow="5320" yWindow="2260" windowWidth="23040" windowHeight="17060" xr2:uid="{5C3E01C8-E00E-4E25-94E5-25E6664D94E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rocket Launches" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -953,6 +953,7 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,29 +1268,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6975F-1241-4512-AEE7-2A9233963C6F}">
-  <dimension ref="A1:Z326"/>
+  <dimension ref="A1:Z329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y297" sqref="Y297"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.6640625" customWidth="1"/>
@@ -13154,6 +13155,24 @@
       </c>
       <c r="Y326" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26">
+      <c r="F327" s="14">
+        <f>COUNTIF(F$2:F$326, "Y")</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26">
+      <c r="F328" s="14">
+        <f>COUNTIF(F$2:F$326, "N")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26">
+      <c r="F329" s="14">
+        <f>COUNTIF(F$2:F$326, "")</f>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -13170,7 +13189,7 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -14323,7 +14342,7 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -15440,10 +15459,10 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16252,21 +16271,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FA602AEF728D64AA0A0E0C1743597A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f798622e76a37d06746f913c81c0742a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5e2e469a-fc38-4d3e-a8b0-b3d70207518b" xmlns:ns4="a0f2993e-c0c3-4c95-8734-911ad58dca13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c17aa555a9762b57b66252758b011588" ns3:_="" ns4:_="">
     <xsd:import namespace="5e2e469a-fc38-4d3e-a8b0-b3d70207518b"/>
@@ -16489,24 +16493,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01ACC9F2-B99D-40EB-ACBC-41C24317C64F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348F834C-E169-48E4-A067-3F55F01F86B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D11F525-B1A3-49BA-96F5-8E363BBB7284}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16523,4 +16525,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348F834C-E169-48E4-A067-3F55F01F86B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01ACC9F2-B99D-40EB-ACBC-41C24317C64F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>